--- a/data/trans_orig/PERI_TABACO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/PERI_TABACO-Edad-trans_orig.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Media" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Media" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -37,7 +39,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,48 +53,6 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -105,11 +65,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -501,450 +461,490 @@
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="n"/>
+      <c r="A2" s="3" t="n"/>
       <c r="B2" s="2" t="n"/>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Andalucía</t>
         </is>
       </c>
     </row>
     <row r="3" hidden="1">
-      <c r="A3" s="4" t="n"/>
+      <c r="A3" s="3" t="n"/>
       <c r="B3" s="2" t="n"/>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>16/24</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>16-24 años</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>3,56</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>3,78</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,72</t>
-        </is>
+      <c r="C4" s="4" t="n">
+        <v>3.55582434447479</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>3.504560983021659</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>3.520087008947009</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>2,83; 5,0</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>1,71; 5,22</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>2,33; 4,81</t>
-        </is>
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>2.833333333333333</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>1.483704868797342</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>2.236481389417146</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>25/34</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>5.157751847808814</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>4.936669979057828</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>25-34 años</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>7,71</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>7,61</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>7,66</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>4,97; 10,8</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>5,83; 9,38</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>5,83; 9,4</t>
-        </is>
+      <c r="C7" s="4" t="n">
+        <v>7.223968549035592</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>8.003942342735225</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>7.579647653852419</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35/44</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>4.789480723682965</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>5.841252194011543</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>5.899392083986698</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>10.31943002652072</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>10.15776655425472</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>9.428242941612606</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>35-44 años</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>14,52</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>15,71</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>15,11</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>12,47; 16,21</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>14,02; 17,54</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>13,83; 16,3</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>45/54</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="C10" s="4" t="n">
+        <v>14.5389823597381</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>15.63938556942483</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>15.08468582232144</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>12.3133358969755</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>13.73315487109275</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>13.63370630251465</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>16.4791101986965</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>17.40695807407192</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>16.45378773252021</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>45-54 años</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>21,94</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>20,44</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>21,31</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>19,79; 23,86</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>18,34; 22,45</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>19,84; 22,84</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55/64</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="C13" s="4" t="n">
+        <v>22.1475789304519</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>20.16581574014569</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>21.30822890811887</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>19.81332305351079</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>18.00218033829157</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>19.82704390332891</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>24.1325290373114</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>22.44877438737436</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>22.92661461336776</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>55-64 años</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>27,41</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>27,31</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>27,37</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>25,17; 29,47</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>24,91; 29,54</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>25,72; 28,95</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="C16" s="4" t="n">
+        <v>27.22712725557872</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>27.47824869319704</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v>27.31898581996168</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n"/>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>25.02792235908402</v>
+      </c>
+      <c r="D17" s="4" t="n">
+        <v>24.97332753038513</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v>25.60270173937508</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n"/>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="n">
+        <v>29.41026324473285</v>
+      </c>
+      <c r="D18" s="4" t="n">
+        <v>29.7238814236611</v>
+      </c>
+      <c r="E18" s="4" t="n">
+        <v>28.91395124211481</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>65-74 años</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>32,91</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>31,3</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>32,47</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>30,78; 35,22</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>28,01; 34,58</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>30,7; 34,37</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B16" s="3" t="inlineStr">
+      <c r="C19" s="4" t="n">
+        <v>32.95574579068768</v>
+      </c>
+      <c r="D19" s="4" t="n">
+        <v>31.22071046138078</v>
+      </c>
+      <c r="E19" s="4" t="n">
+        <v>32.45476871740025</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n"/>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>30.43999118326746</v>
+      </c>
+      <c r="D20" s="4" t="n">
+        <v>27.88248588341453</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v>30.42278763047563</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n"/>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="n">
+        <v>35.44659407746079</v>
+      </c>
+      <c r="D21" s="4" t="n">
+        <v>34.97215982873306</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v>34.56609509735168</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>75 y más años</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>38,16</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>35,17</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>37,65</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n"/>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>35,4; 40,46</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>29,09; 41,25</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>35,36; 40,02</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="C22" s="4" t="n">
+        <v>37.71927330527114</v>
+      </c>
+      <c r="D22" s="4" t="n">
+        <v>35.16933232701889</v>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v>37.21309401171155</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n"/>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>34.87235043320455</v>
+      </c>
+      <c r="D23" s="4" t="n">
+        <v>29.08968360600577</v>
+      </c>
+      <c r="E23" s="4" t="n">
+        <v>34.70193274091613</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n"/>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="n">
+        <v>40.38842545021957</v>
+      </c>
+      <c r="D24" s="4" t="n">
+        <v>41.24793600315007</v>
+      </c>
+      <c r="E24" s="4" t="n">
+        <v>39.67918347279235</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B18" s="3" t="inlineStr">
+      <c r="B25" s="2" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>27,23</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>22,14</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>25,37</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n"/>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>25,76; 28,59</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>20,51; 23,56</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>24,35; 26,43</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="C25" s="4" t="n">
+        <v>26.99849006567166</v>
+      </c>
+      <c r="D25" s="4" t="n">
+        <v>22.48544889129286</v>
+      </c>
+      <c r="E25" s="4" t="n">
+        <v>25.33998702372422</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n"/>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="n">
+        <v>25.47529207929631</v>
+      </c>
+      <c r="D26" s="4" t="n">
+        <v>20.88415173185429</v>
+      </c>
+      <c r="E26" s="4" t="n">
+        <v>24.17110396127328</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n"/>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="n">
+        <v>28.62886161760805</v>
+      </c>
+      <c r="D27" s="4" t="n">
+        <v>24.15728412338354</v>
+      </c>
+      <c r="E27" s="4" t="n">
+        <v>26.36411261805651</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
@@ -952,15 +952,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
